--- a/assets/poi.xlsx
+++ b/assets/poi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DEV\Promenade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DEV\Promenade\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4CFC9A-2D17-481A-9741-2E8EC7BE0252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC4975-E077-4810-8DB4-E633DC7C785F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{568C77FC-0DE7-4256-B04F-041E0148FBF8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="249">
   <si>
     <t>aeroway</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>обмен книгами</t>
-  </si>
-  <si>
-    <t>bench</t>
-  </si>
-  <si>
-    <t>скамейка</t>
   </si>
   <si>
     <t>clock</t>
@@ -1184,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F18D1C-6589-4D0F-8BC1-7640B77B5D33}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,673 +1195,673 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1" t="str">
-        <f>"{""key"":"""&amp;A1&amp;""",""value"":"""&amp;B1&amp;""",""name"":"""&amp;C1&amp;"""}"</f>
+        <f t="shared" ref="F1:F32" si="0">"{""key"":"""&amp;A1&amp;""",""value"":"""&amp;B1&amp;""",""name"":"""&amp;C1&amp;"""}"</f>
         <v>{"key":"historic","value":"aqueduct","name":"акведук"}</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f>"{""key"":"""&amp;A2&amp;""",""value"":"""&amp;B2&amp;""",""name"":"""&amp;C2&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"building","value":"gatehouse","name":"арка"}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f>"{""key"":"""&amp;A3&amp;""",""value"":"""&amp;B3&amp;""",""name"":"""&amp;C3&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"barrier","value":"city_wall","name":"городская стена"}</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f>"{""key"":"""&amp;A4&amp;""",""value"":"""&amp;B4&amp;""",""name"":"""&amp;C4&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"historic","value":"city_gate","name":"городские ворота"}</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f>"{""key"":"""&amp;A5&amp;""",""value"":"""&amp;B5&amp;""",""name"":"""&amp;C5&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"historic","value":"tomb","name":"гробница"}</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="str">
-        <f>"{""key"":"""&amp;A6&amp;""",""value"":"""&amp;B6&amp;""",""name"":"""&amp;C6&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"building","value":"temple","name":"замок"}</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f>"{""key"":"""&amp;A7&amp;""",""value"":"""&amp;B7&amp;""",""name"":"""&amp;C7&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"historic","value":"castle","name":"замок"}</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="str">
-        <f>"{""key"":"""&amp;A8&amp;""",""value"":"""&amp;B8&amp;""",""name"":"""&amp;C8&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"historic","value":"building","name":"историческое здание"}</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="str">
-        <f>"{""key"":"""&amp;A9&amp;""",""value"":"""&amp;B9&amp;""",""name"":"""&amp;C9&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"building","value":"conservatory","name":"оранжерея"}</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <f>"{""key"":"""&amp;A10&amp;""",""value"":"""&amp;B10&amp;""",""name"":"""&amp;C10&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"barrier","value":"ditch","name":"ров"}</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="str">
-        <f>"{""key"":"""&amp;A11&amp;""",""value"":"""&amp;B11&amp;""",""name"":"""&amp;C11&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"historic","value":"castle_wall","name":"стена замка"}</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="str">
-        <f>"{""key"":"""&amp;A12&amp;""",""value"":"""&amp;B12&amp;""",""name"":"""&amp;C12&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"building","value":"greenhouse","name":"теплица"}</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="str">
-        <f>"{""key"":"""&amp;A13&amp;""",""value"":"""&amp;B13&amp;""",""name"":"""&amp;C13&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"historic","value":"manor","name":"усадьба"}</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="str">
-        <f>"{""key"":"""&amp;A14&amp;""",""value"":"""&amp;B14&amp;""",""name"":"""&amp;C14&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"historic","value":"tower","name":"башня"}</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="str">
-        <f>"{""key"":"""&amp;A15&amp;""",""value"":"""&amp;B15&amp;""",""name"":"""&amp;C15&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"tower","name":"башня"}</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="str">
-        <f>"{""key"":"""&amp;A16&amp;""",""value"":"""&amp;B16&amp;""",""name"":"""&amp;C16&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"building","value":"water_tower","name":"водонапорная башня"}</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="str">
-        <f>"{""key"":"""&amp;A17&amp;""",""value"":"""&amp;B17&amp;""",""name"":"""&amp;C17&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"water_tower","name":"водонапорная башня"}</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="str">
-        <f>"{""key"":"""&amp;A18&amp;""",""value"":"""&amp;B18&amp;""",""name"":"""&amp;C18&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"communications_tower","name":"вышка связи"}</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="str">
-        <f>"{""key"":"""&amp;A19&amp;""",""value"":"""&amp;B19&amp;""",""name"":"""&amp;C19&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"mast","name":"мачта"}</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="str">
-        <f>"{""key"":"""&amp;A20&amp;""",""value"":"""&amp;B20&amp;""",""name"":"""&amp;C20&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"lighthouse","name":"маяк"}</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="str">
-        <f>"{""key"":"""&amp;A21&amp;""",""value"":"""&amp;B21&amp;""",""name"":"""&amp;C21&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"beacon","name":"радиомаяк"}</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="str">
-        <f>"{""key"":"""&amp;A22&amp;""",""value"":"""&amp;B22&amp;""",""name"":"""&amp;C22&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23" t="str">
-        <f>"{""key"":"""&amp;A23&amp;""",""value"":"""&amp;B23&amp;""",""name"":"""&amp;C23&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"waterway","value":"lock_gate","name":"водные ворота"}</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="str">
-        <f>"{""key"":"""&amp;A24&amp;""",""value"":"""&amp;B24&amp;""",""name"":"""&amp;C24&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"waterway","value":"waterfall","name":"водопад"}</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="str">
-        <f>"{""key"":"""&amp;A25&amp;""",""value"":"""&amp;B25&amp;""",""name"":"""&amp;C25&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"groyne","name":"волнолом"}</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" t="str">
-        <f>"{""key"":"""&amp;A26&amp;""",""value"":"""&amp;B26&amp;""",""name"":"""&amp;C26&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"breakwater","name":"волнорез"}</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27" t="str">
-        <f>"{""key"":"""&amp;A27&amp;""",""value"":"""&amp;B27&amp;""",""name"":"""&amp;C27&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"waterway","value":"dam","name":"дамба"}</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="str">
-        <f>"{""key"":"""&amp;A28&amp;""",""value"":"""&amp;B28&amp;""",""name"":"""&amp;C28&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"water_well","name":"колодец"}</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="str">
-        <f>"{""key"":"""&amp;A29&amp;""",""value"":"""&amp;B29&amp;""",""name"":"""&amp;C29&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"man_made","value":"pier","name":"пирс"}</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="str">
-        <f>"{""key"":"""&amp;A30&amp;""",""value"":"""&amp;B30&amp;""",""name"":"""&amp;C30&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"emergency","value":"drinking_water","name":"питьевая вода"}</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" t="s">
         <v>242</v>
       </c>
-      <c r="B31" t="s">
-        <v>244</v>
-      </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="str">
-        <f>"{""key"":"""&amp;A31&amp;""",""value"":"""&amp;B31&amp;""",""name"":"""&amp;C31&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"waterway","value":"weir","name":"плотина"}</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="str">
-        <f>"{""key"":"""&amp;A32&amp;""",""value"":"""&amp;B32&amp;""",""name"":"""&amp;C32&amp;"""}"</f>
+        <f t="shared" si="0"/>
         <v>{"key":"emergency","value":"water_tank","name":"пожарный водоём"}</v>
       </c>
     </row>
@@ -1882,307 +1876,307 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="str">
-        <f>"{""key"":"""&amp;A33&amp;""",""value"":"""&amp;B33&amp;""",""name"":"""&amp;C33&amp;"""}"</f>
+        <f t="shared" ref="F33:F63" si="1">"{""key"":"""&amp;A33&amp;""",""value"":"""&amp;B33&amp;""",""name"":"""&amp;C33&amp;"""}"</f>
         <v>{"key":"amenity","value":"fountain","name":"фонтан"}</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34" t="str">
-        <f>"{""key"":"""&amp;A34&amp;""",""value"":"""&amp;B34&amp;""",""name"":"""&amp;C34&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"man_made","value":"bunker_silo","name":"бункер"}</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="str">
-        <f>"{""key"":"""&amp;A35&amp;""",""value"":"""&amp;B35&amp;""",""name"":"""&amp;C35&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"military","value":"bunker","name":"бункер"}</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" t="str">
-        <f>"{""key"":"""&amp;A36&amp;""",""value"":"""&amp;B36&amp;""",""name"":"""&amp;C36&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"ship","name":"корабль"}</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37" t="str">
-        <f>"{""key"":"""&amp;A37&amp;""",""value"":"""&amp;B37&amp;""",""name"":"""&amp;C37&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"}</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
       <c r="F38" t="str">
-        <f>"{""key"":"""&amp;A38&amp;""",""value"":"""&amp;B38&amp;""",""name"":"""&amp;C38&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"memorial","name":"мемориал"}</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" t="str">
-        <f>"{""key"":"""&amp;A39&amp;""",""value"":"""&amp;B39&amp;""",""name"":"""&amp;C39&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"battlefield","name":"место сражения"}</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" t="str">
-        <f>"{""key"":"""&amp;A40&amp;""",""value"":"""&amp;B40&amp;""",""name"":"""&amp;C40&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"man_made","value":"obelisk","name":"обелиск"}</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="str">
-        <f>"{""key"":"""&amp;A41&amp;""",""value"":"""&amp;B41&amp;""",""name"":"""&amp;C41&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"boundary_stone","name":"пограничный камень"}</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42" t="str">
-        <f>"{""key"":"""&amp;A42&amp;""",""value"":"""&amp;B42&amp;""",""name"":"""&amp;C42&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"cannon","name":"пушка"}</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" t="str">
-        <f>"{""key"":"""&amp;A43&amp;""",""value"":"""&amp;B43&amp;""",""name"":"""&amp;C43&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"aircraft","name":"самолет"}</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44" t="str">
-        <f>"{""key"":"""&amp;A44&amp;""",""value"":"""&amp;B44&amp;""",""name"":"""&amp;C44&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"tank","name":"танк"}</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45" t="str">
-        <f>"{""key"":"""&amp;A45&amp;""",""value"":"""&amp;B45&amp;""",""name"":"""&amp;C45&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"historic","value":"fort","name":"форт"}</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>5</v>
       </c>
       <c r="F46" t="str">
-        <f>"{""key"":"""&amp;A46&amp;""",""value"":"""&amp;B46&amp;""",""name"":"""&amp;C46&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"leisure","value":"track","name":"беговая дорожка"}</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
         <v>81</v>
       </c>
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47" t="str">
-        <f>"{""key"":"""&amp;A47&amp;""",""value"":"""&amp;B47&amp;""",""name"":"""&amp;C47&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"highway","value":"traffic_mirror","name":"зеркало"}</v>
       </c>
     </row>
@@ -2197,13 +2191,13 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="F48" t="str">
-        <f>"{""key"":"""&amp;A48&amp;""",""value"":"""&amp;B48&amp;""",""name"":"""&amp;C48&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"amenity","value":"drinking_water","name":"источник воды"}</v>
       </c>
     </row>
@@ -2212,19 +2206,19 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>22</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
       </c>
       <c r="E49">
         <v>5</v>
       </c>
       <c r="F49" t="str">
-        <f>"{""key"":"""&amp;A49&amp;""",""value"":"""&amp;B49&amp;""",""name"":"""&amp;C49&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"amenity","value":"shelter","name":"навес от дождя"}</v>
       </c>
     </row>
@@ -2233,335 +2227,335 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" t="str">
-        <f>"{""key"":"""&amp;A50&amp;""",""value"":"""&amp;B50&amp;""",""name"":"""&amp;C50&amp;"""}"</f>
+        <f t="shared" si="1"/>
         <v>{"key":"amenity","value":"clock","name":"наружные часы"}</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>5</v>
       </c>
       <c r="F51" t="str">
-        <f>"{""key"":"""&amp;A51&amp;""",""value"":"""&amp;B51&amp;""",""name"":"""&amp;C51&amp;"""}"</f>
-        <v>{"key":"amenity","value":"bench","name":"скамейка"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" t="str">
-        <f>"{""key"":"""&amp;A52&amp;""",""value"":"""&amp;B52&amp;""",""name"":"""&amp;C52&amp;"""}"</f>
-        <v>{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"tourism","value":"artwork","name":"арт-объект"}</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>6</v>
       </c>
       <c r="F53" t="str">
-        <f>"{""key"":"""&amp;A53&amp;""",""value"":"""&amp;B53&amp;""",""name"":"""&amp;C53&amp;"""}"</f>
-        <v>{"key":"tourism","value":"artwork","name":"арт-объект"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"archaeological_site","name":"археологические раскопки"}</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>6</v>
       </c>
       <c r="F54" t="str">
-        <f>"{""key"":"""&amp;A54&amp;""",""value"":"""&amp;B54&amp;""",""name"":"""&amp;C54&amp;"""}"</f>
-        <v>{"key":"historic","value":"archaeological_site","name":"археологические раскопки"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"building","value":"bunker","name":"бункер"}</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55" t="str">
-        <f>"{""key"":"""&amp;A55&amp;""",""value"":"""&amp;B55&amp;""",""name"":"""&amp;C55&amp;"""}"</f>
-        <v>{"key":"building","value":"bunker","name":"бункер"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"railway_car","name":"вагон"}</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>6</v>
       </c>
       <c r="F56" t="str">
-        <f>"{""key"":"""&amp;A56&amp;""",""value"":"""&amp;B56&amp;""",""name"":"""&amp;C56&amp;"""}"</f>
-        <v>{"key":"historic","value":"railway_car","name":"вагон"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"milestone","name":"верстовой камень"}</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
       <c r="F57" t="str">
-        <f>"{""key"":"""&amp;A57&amp;""",""value"":"""&amp;B57&amp;""",""name"":"""&amp;C57&amp;"""}"</f>
-        <v>{"key":"historic","value":"milestone","name":"верстовой камень"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"gallows","name":"виселицы"}</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E58">
         <v>6</v>
       </c>
       <c r="F58" t="str">
-        <f>"{""key"":"""&amp;A58&amp;""",""value"":"""&amp;B58&amp;""",""name"":"""&amp;C58&amp;"""}"</f>
-        <v>{"key":"historic","value":"gallows","name":"виселицы"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"highwater_mark","name":"водомерная отметка"}</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>6</v>
       </c>
       <c r="F59" t="str">
-        <f>"{""key"":"""&amp;A59&amp;""",""value"":"""&amp;B59&amp;""",""name"":"""&amp;C59&amp;"""}"</f>
-        <v>{"key":"historic","value":"highwater_mark","name":"водомерная отметка"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"man_made","value":"watermill","name":"водяная мельница"}</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>6</v>
       </c>
       <c r="F60" t="str">
-        <f>"{""key"":"""&amp;A60&amp;""",""value"":"""&amp;B60&amp;""",""name"":"""&amp;C60&amp;"""}"</f>
-        <v>{"key":"man_made","value":"watermill","name":"водяная мельница"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"building","value":"tree_house","name":"домик на дереве"}</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
       <c r="F61" t="str">
-        <f>"{""key"":"""&amp;A61&amp;""",""value"":"""&amp;B61&amp;""",""name"":"""&amp;C61&amp;"""}"</f>
-        <v>{"key":"building","value":"tree_house","name":"домик на дереве"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"locomotive","name":"локомотив"}</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>6</v>
       </c>
       <c r="F62" t="str">
-        <f>"{""key"":"""&amp;A62&amp;""",""value"":"""&amp;B62&amp;""",""name"":"""&amp;C62&amp;"""}"</f>
-        <v>{"key":"historic","value":"locomotive","name":"локомотив"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"man_made","value":"windmill","name":"мельница"}</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
       <c r="F63" t="str">
-        <f>"{""key"":"""&amp;A63&amp;""",""value"":"""&amp;B63&amp;""",""name"":"""&amp;C63&amp;"""}"</f>
-        <v>{"key":"man_made","value":"windmill","name":"мельница"}</v>
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"pillory","name":"место казни"}</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E64">
         <v>6</v>
       </c>
       <c r="F64" t="str">
-        <f>"{""key"":"""&amp;A64&amp;""",""value"":"""&amp;B64&amp;""",""name"":"""&amp;C64&amp;"""}"</f>
-        <v>{"key":"historic","value":"pillory","name":"место казни"}</v>
+        <f t="shared" ref="F64:F95" si="2">"{""key"":"""&amp;A64&amp;""",""value"":"""&amp;B64&amp;""",""name"":"""&amp;C64&amp;"""}"</f>
+        <v>{"key":"tourism","value":"viewpoint","name":"обзорная точка"}</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>6</v>
       </c>
       <c r="F65" t="str">
-        <f>"{""key"":"""&amp;A65&amp;""",""value"":"""&amp;B65&amp;""",""name"":"""&amp;C65&amp;"""}"</f>
-        <v>{"key":"tourism","value":"viewpoint","name":"обзорная точка"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"amenity","value":"public_bookcase","name":"обмен книгами"}</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,886 +2563,886 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>6</v>
       </c>
       <c r="F66" t="str">
-        <f>"{""key"":"""&amp;A66&amp;""",""value"":"""&amp;B66&amp;""",""name"":"""&amp;C66&amp;"""}"</f>
-        <v>{"key":"amenity","value":"public_bookcase","name":"обмен книгами"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"amenity","value":"hunting_stand","name":"охотничья станция"}</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="F67" t="str">
-        <f>"{""key"":"""&amp;A67&amp;""",""value"":"""&amp;B67&amp;""",""name"":"""&amp;C67&amp;"""}"</f>
-        <v>{"key":"amenity","value":"hunting_stand","name":"охотничья станция"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"}</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E68">
         <v>6</v>
       </c>
       <c r="F68" t="str">
-        <f>"{""key"":"""&amp;A68&amp;""",""value"":"""&amp;B68&amp;""",""name"":"""&amp;C68&amp;"""}"</f>
-        <v>{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"geological","value":"palaeontological_site","name":"раскопки"}</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E69">
         <v>6</v>
       </c>
       <c r="F69" t="str">
-        <f>"{""key"":"""&amp;A69&amp;""",""value"":"""&amp;B69&amp;""",""name"":"""&amp;C69&amp;"""}"</f>
-        <v>{"key":"geological","value":"palaeontological_site","name":"раскопки"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"leisure","value":"slipway","name":"стапель"}</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E70">
         <v>6</v>
       </c>
       <c r="F70" t="str">
-        <f>"{""key"":"""&amp;A70&amp;""",""value"":"""&amp;B70&amp;""",""name"":"""&amp;C70&amp;"""}"</f>
-        <v>{"key":"leisure","value":"slipway","name":"стапель"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"leisure","value":"picnic_table","name":"стол для пикника"}</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
         <v>155</v>
       </c>
-      <c r="B71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" t="s">
-        <v>165</v>
-      </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E71">
         <v>6</v>
       </c>
       <c r="F71" t="str">
-        <f>"{""key"":"""&amp;A71&amp;""",""value"":"""&amp;B71&amp;""",""name"":"""&amp;C71&amp;"""}"</f>
-        <v>{"key":"leisure","value":"picnic_table","name":"стол для пикника"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"leisure","value":"bandstand","name":"сцена"}</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E72">
         <v>6</v>
       </c>
       <c r="F72" t="str">
-        <f>"{""key"":"""&amp;A72&amp;""",""value"":"""&amp;B72&amp;""",""name"":"""&amp;C72&amp;"""}"</f>
-        <v>{"key":"leisure","value":"bandstand","name":"сцена"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"survey_point","name":"топографическая точка"}</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73" t="str">
-        <f>"{""key"":"""&amp;A73&amp;""",""value"":"""&amp;B73&amp;""",""name"":"""&amp;C73&amp;"""}"</f>
-        <v>{"key":"man_made","value":"survey_point","name":"топографическая точка"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"flagpole","name":"флагшток"}</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E74">
         <v>6</v>
       </c>
       <c r="F74" t="str">
-        <f>"{""key"":"""&amp;A74&amp;""",""value"":"""&amp;B74&amp;""",""name"":"""&amp;C74&amp;"""}"</f>
-        <v>{"key":"man_made","value":"flagpole","name":"флагшток"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"aeroway","value":"windsock","name":"флюгер"}</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75" t="str">
-        <f>"{""key"":"""&amp;A75&amp;""",""value"":"""&amp;B75&amp;""",""name"":"""&amp;C75&amp;"""}"</f>
-        <v>{"key":"aeroway","value":"windsock","name":"флюгер"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"historic","value":"stone","name":"камень"}</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E76">
         <v>7</v>
       </c>
       <c r="F76" t="str">
-        <f>"{""key"":"""&amp;A76&amp;""",""value"":"""&amp;B76&amp;""",""name"":"""&amp;C76&amp;"""}"</f>
-        <v>{"key":"historic","value":"stone","name":"камень"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"historic","value":"monument","name":"монумент"}</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F77" t="str">
-        <f>"{""key"":"""&amp;A77&amp;""",""value"":"""&amp;B77&amp;""",""name"":"""&amp;C77&amp;"""}"</f>
-        <v>{"key":"historic","value":"monument","name":"монумент"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"barrier","value":"log","name":"бревно"}</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E78">
         <v>8</v>
       </c>
       <c r="F78" t="str">
-        <f>"{""key"":"""&amp;A78&amp;""",""value"":"""&amp;B78&amp;""",""name"":"""&amp;C78&amp;"""}"</f>
-        <v>{"key":"barrier","value":"log","name":"бревно"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"ford","value":"yes","name":"брод"}</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E79">
         <v>8</v>
       </c>
       <c r="F79" t="str">
-        <f>"{""key"":"""&amp;A79&amp;""",""value"":"""&amp;B79&amp;""",""name"":"""&amp;C79&amp;"""}"</f>
-        <v>{"key":"ford","value":"yes","name":"брод"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"natural","value":"rock","name":"булыжник"}</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
         <v>217</v>
       </c>
-      <c r="B80" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" t="s">
-        <v>227</v>
-      </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E80">
         <v>8</v>
       </c>
       <c r="F80" t="str">
-        <f>"{""key"":"""&amp;A80&amp;""",""value"":"""&amp;B80&amp;""",""name"":"""&amp;C80&amp;"""}"</f>
-        <v>{"key":"natural","value":"rock","name":"булыжник"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"natural","value":"spring","name":"водный источник"}</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E81">
         <v>8</v>
       </c>
       <c r="F81" t="str">
-        <f>"{""key"":"""&amp;A81&amp;""",""value"":"""&amp;B81&amp;""",""name"":"""&amp;C81&amp;"""}"</f>
-        <v>{"key":"natural","value":"spring","name":"водный источник"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"natural","value":"geyser","name":"гейзер"}</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E82">
         <v>8</v>
       </c>
       <c r="F82" t="str">
-        <f>"{""key"":"""&amp;A82&amp;""",""value"":"""&amp;B82&amp;""",""name"":"""&amp;C82&amp;"""}"</f>
-        <v>{"key":"natural","value":"geyser","name":"гейзер"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"natural","value":"hot_spring","name":"горячий сточник"}</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E83">
         <v>8</v>
       </c>
       <c r="F83" t="str">
-        <f>"{""key"":"""&amp;A83&amp;""",""value"":"""&amp;B83&amp;""",""name"":"""&amp;C83&amp;"""}"</f>
-        <v>{"key":"natural","value":"hot_spring","name":"горячий сточник"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"natural","value":"stone","name":"камень"}</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E84">
         <v>8</v>
       </c>
       <c r="F84" t="str">
-        <f>"{""key"":"""&amp;A84&amp;""",""value"":"""&amp;B84&amp;""",""name"":"""&amp;C84&amp;"""}"</f>
-        <v>{"key":"natural","value":"stone","name":"камень"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"leisure","value":"firepit","name":"кострище"}</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E85">
         <v>8</v>
       </c>
       <c r="F85" t="str">
-        <f>"{""key"":"""&amp;A85&amp;""",""value"":"""&amp;B85&amp;""",""name"":"""&amp;C85&amp;"""}"</f>
-        <v>{"key":"leisure","value":"firepit","name":"кострище"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"geological","value":"outcrop","name":"обнажение породы"}</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E86">
         <v>8</v>
       </c>
       <c r="F86" t="str">
-        <f>"{""key"":"""&amp;A86&amp;""",""value"":"""&amp;B86&amp;""",""name"":"""&amp;C86&amp;"""}"</f>
-        <v>{"key":"geological","value":"outcrop","name":"обнажение породы"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"barrier","value":"debris","name":"осыпь"}</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="B87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" t="s">
+        <v>223</v>
+      </c>
+      <c r="D87" t="s">
         <v>32</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
       </c>
       <c r="E87">
         <v>8</v>
       </c>
       <c r="F87" t="str">
-        <f>"{""key"":"""&amp;A87&amp;""",""value"":"""&amp;B87&amp;""",""name"":"""&amp;C87&amp;"""}"</f>
-        <v>{"key":"barrier","value":"debris","name":"осыпь"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"natural","value":"blowhole","name":"отдушина"}</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E88">
         <v>8</v>
       </c>
       <c r="F88" t="str">
-        <f>"{""key"":"""&amp;A88&amp;""",""value"":"""&amp;B88&amp;""",""name"":"""&amp;C88&amp;"""}"</f>
-        <v>{"key":"natural","value":"blowhole","name":"отдушина"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"natural","value":"cave_entrance","name":"пещера"}</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="E89">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F89" t="str">
-        <f>"{""key"":"""&amp;A89&amp;""",""value"":"""&amp;B89&amp;""",""name"":"""&amp;C89&amp;"""}"</f>
-        <v>{"key":"natural","value":"cave_entrance","name":"пещера"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"gasometer","name":"газгольдер"}</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" t="s">
         <v>185</v>
-      </c>
-      <c r="C90" t="s">
-        <v>186</v>
-      </c>
-      <c r="D90" t="s">
-        <v>187</v>
       </c>
       <c r="E90">
         <v>11</v>
       </c>
       <c r="F90" t="str">
-        <f>"{""key"":"""&amp;A90&amp;""",""value"":"""&amp;B90&amp;""",""name"":"""&amp;C90&amp;"""}"</f>
-        <v>{"key":"man_made","value":"gasometer","name":"газгольдер"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"goods_conveyor","name":"конвейер"}</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E91">
         <v>11</v>
       </c>
       <c r="F91" t="str">
-        <f>"{""key"":"""&amp;A91&amp;""",""value"":"""&amp;B91&amp;""",""name"":"""&amp;C91&amp;"""}"</f>
-        <v>{"key":"man_made","value":"goods_conveyor","name":"конвейер"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"reservoir_covered","name":"резервуар"}</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E92">
         <v>11</v>
       </c>
       <c r="F92" t="str">
-        <f>"{""key"":"""&amp;A92&amp;""",""value"":"""&amp;B92&amp;""",""name"":"""&amp;C92&amp;"""}"</f>
-        <v>{"key":"man_made","value":"reservoir_covered","name":"резервуар"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"power","value":"heliostat","name":"солнечная батарея"}</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E93">
         <v>11</v>
       </c>
       <c r="F93" t="str">
-        <f>"{""key"":"""&amp;A93&amp;""",""value"":"""&amp;B93&amp;""",""name"":"""&amp;C93&amp;"""}"</f>
-        <v>{"key":"power","value":"heliostat","name":"солнечная батарея"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"chimney","name":"труба"}</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E94">
         <v>11</v>
       </c>
       <c r="F94" t="str">
-        <f>"{""key"":"""&amp;A94&amp;""",""value"":"""&amp;B94&amp;""",""name"":"""&amp;C94&amp;"""}"</f>
-        <v>{"key":"man_made","value":"chimney","name":"труба"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"silo","name":"хранилище"}</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
         <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E95">
         <v>11</v>
       </c>
       <c r="F95" t="str">
-        <f>"{""key"":"""&amp;A95&amp;""",""value"":"""&amp;B95&amp;""",""name"":"""&amp;C95&amp;"""}"</f>
-        <v>{"key":"man_made","value":"silo","name":"хранилище"}</v>
+        <f t="shared" si="2"/>
+        <v>{"key":"man_made","value":"storage_tank","name":"хранилище"}</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E96">
         <v>11</v>
       </c>
       <c r="F96" t="str">
-        <f>"{""key"":"""&amp;A96&amp;""",""value"":"""&amp;B96&amp;""",""name"":"""&amp;C96&amp;"""}"</f>
-        <v>{"key":"man_made","value":"storage_tank","name":"хранилище"}</v>
+        <f t="shared" ref="F96:F116" si="3">"{""key"":"""&amp;A96&amp;""",""value"":"""&amp;B96&amp;""",""name"":"""&amp;C96&amp;"""}"</f>
+        <v>{"key":"man_made","value":"mineshaft","name":"шахта"}</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
         <v>170</v>
       </c>
-      <c r="B97" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" t="s">
-        <v>198</v>
-      </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E97">
         <v>11</v>
       </c>
       <c r="F97" t="str">
-        <f>"{""key"":"""&amp;A97&amp;""",""value"":"""&amp;B97&amp;""",""name"":"""&amp;C97&amp;"""}"</f>
-        <v>{"key":"man_made","value":"mineshaft","name":"шахта"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"man_made","value":"adit","name":"штольня"}</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F98" t="str">
-        <f>"{""key"":"""&amp;A98&amp;""",""value"":"""&amp;B98&amp;""",""name"":"""&amp;C98&amp;"""}"</f>
-        <v>{"key":"man_made","value":"adit","name":"штольня"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"}</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E99">
         <v>9</v>
       </c>
       <c r="F99" t="str">
-        <f>"{""key"":"""&amp;A99&amp;""",""value"":"""&amp;B99&amp;""",""name"":"""&amp;C99&amp;"""}"</f>
-        <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"historic","value":"wayside_cross","name":"крест"}</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E100">
         <v>9</v>
       </c>
       <c r="F100" t="str">
-        <f>"{""key"":"""&amp;A100&amp;""",""value"":"""&amp;B100&amp;""",""name"":"""&amp;C100&amp;"""}"</f>
-        <v>{"key":"historic","value":"wayside_cross","name":"крест"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"man_made","value":"cross","name":"крест"}</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E101">
         <v>9</v>
       </c>
       <c r="F101" t="str">
-        <f>"{""key"":"""&amp;A101&amp;""",""value"":"""&amp;B101&amp;""",""name"":"""&amp;C101&amp;"""}"</f>
-        <v>{"key":"man_made","value":"cross","name":"крест"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"building","value":"mosque","name":"мечеть"}</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E102">
         <v>9</v>
       </c>
       <c r="F102" t="str">
-        <f>"{""key"":"""&amp;A102&amp;""",""value"":"""&amp;B102&amp;""",""name"":"""&amp;C102&amp;"""}"</f>
-        <v>{"key":"building","value":"mosque","name":"мечеть"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"amenity","value":"monastery","name":"монастырь"}</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E103">
         <v>9</v>
       </c>
       <c r="F103" t="str">
-        <f>"{""key"":"""&amp;A103&amp;""",""value"":"""&amp;B103&amp;""",""name"":"""&amp;C103&amp;"""}"</f>
-        <v>{"key":"amenity","value":"monastery","name":"монастырь"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"historic","value":"monastery","name":"монастырь"}</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E104">
         <v>9</v>
       </c>
       <c r="F104" t="str">
-        <f>"{""key"":"""&amp;A104&amp;""",""value"":"""&amp;B104&amp;""",""name"":"""&amp;C104&amp;"""}"</f>
-        <v>{"key":"historic","value":"monastery","name":"монастырь"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"building","value":"religious","name":"религиозное строение"}</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E105">
         <v>9</v>
       </c>
       <c r="F105" t="str">
-        <f>"{""key"":"""&amp;A105&amp;""",""value"":"""&amp;B105&amp;""",""name"":"""&amp;C105&amp;"""}"</f>
-        <v>{"key":"building","value":"religious","name":"религиозное строение"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"historic","value":"rune_stone","name":"рунический камень"}</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E106">
         <v>9</v>
       </c>
       <c r="F106" t="str">
-        <f>"{""key"":"""&amp;A106&amp;""",""value"":"""&amp;B106&amp;""",""name"":"""&amp;C106&amp;"""}"</f>
-        <v>{"key":"historic","value":"rune_stone","name":"рунический камень"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"amenity","value":"place_of_worship","name":"святое место"}</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E107">
         <v>9</v>
       </c>
       <c r="F107" t="str">
-        <f>"{""key"":"""&amp;A107&amp;""",""value"":"""&amp;B107&amp;""",""name"":"""&amp;C107&amp;"""}"</f>
-        <v>{"key":"amenity","value":"place_of_worship","name":"святое место"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"building","value":"shrine","name":"святыня"}</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
         <v>46</v>
@@ -3457,40 +3451,40 @@
         <v>47</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E108">
         <v>9</v>
       </c>
       <c r="F108" t="str">
-        <f>"{""key"":"""&amp;A108&amp;""",""value"":"""&amp;B108&amp;""",""name"":"""&amp;C108&amp;"""}"</f>
-        <v>{"key":"building","value":"shrine","name":"святыня"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"building","value":"synagogue","name":"синагога"}</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" t="s">
         <v>37</v>
       </c>
-      <c r="B109" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" t="s">
-        <v>49</v>
-      </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E109">
         <v>9</v>
       </c>
       <c r="F109" t="str">
-        <f>"{""key"":"""&amp;A109&amp;""",""value"":"""&amp;B109&amp;""",""name"":"""&amp;C109&amp;"""}"</f>
-        <v>{"key":"building","value":"synagogue","name":"синагога"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"building","value":"cathedral","name":"собор"}</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
@@ -3499,167 +3493,146 @@
         <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E110">
         <v>9</v>
       </c>
       <c r="F110" t="str">
-        <f>"{""key"":"""&amp;A110&amp;""",""value"":"""&amp;B110&amp;""",""name"":"""&amp;C110&amp;"""}"</f>
-        <v>{"key":"building","value":"cathedral","name":"собор"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"building","value":"church","name":"церковь"}</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E111">
         <v>9</v>
       </c>
       <c r="F111" t="str">
-        <f>"{""key"":"""&amp;A111&amp;""",""value"":"""&amp;B111&amp;""",""name"":"""&amp;C111&amp;"""}"</f>
-        <v>{"key":"building","value":"church","name":"церковь"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"historic","value":"church","name":"церковь"}</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F112" t="str">
-        <f>"{""key"":"""&amp;A112&amp;""",""value"":"""&amp;B112&amp;""",""name"":"""&amp;C112&amp;"""}"</f>
-        <v>{"key":"historic","value":"church","name":"церковь"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"}</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B113" t="s">
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E113">
         <v>10</v>
       </c>
       <c r="F113" t="str">
-        <f>"{""key"":"""&amp;A113&amp;""",""value"":"""&amp;B113&amp;""",""name"":"""&amp;C113&amp;"""}"</f>
-        <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"railway","value":"disused","name":"заброшенная Ж/Д"}</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="D114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E114">
         <v>10</v>
       </c>
       <c r="F114" t="str">
-        <f>"{""key"":"""&amp;A114&amp;""",""value"":"""&amp;B114&amp;""",""name"":"""&amp;C114&amp;"""}"</f>
-        <v>{"key":"railway","value":"disused","name":"заброшенная Ж/Д"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"historic","value":"wreck","name":"кораблекрушение"}</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E115">
         <v>10</v>
       </c>
       <c r="F115" t="str">
-        <f>"{""key"":"""&amp;A115&amp;""",""value"":"""&amp;B115&amp;""",""name"":"""&amp;C115&amp;"""}"</f>
-        <v>{"key":"historic","value":"wreck","name":"кораблекрушение"}</v>
+        <f t="shared" si="3"/>
+        <v>{"key":"building","value":"ruins","name":"руины"}</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E116">
         <v>10</v>
       </c>
       <c r="F116" t="str">
-        <f>"{""key"":"""&amp;A116&amp;""",""value"":"""&amp;B116&amp;""",""name"":"""&amp;C116&amp;"""}"</f>
-        <v>{"key":"building","value":"ruins","name":"руины"}</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" t="s">
-        <v>66</v>
-      </c>
-      <c r="E117">
-        <v>10</v>
-      </c>
-      <c r="F117" t="str">
-        <f>"{""key"":"""&amp;A117&amp;""",""value"":"""&amp;B117&amp;""",""name"":"""&amp;C117&amp;"""}"</f>
+        <f t="shared" si="3"/>
         <v>{"key":"historic","value":"ruins","name":"руины"}</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F117">
-    <sortCondition ref="D1:D117"/>
-    <sortCondition ref="C1:C117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F116">
+    <sortCondition ref="D1:D116"/>
+    <sortCondition ref="C1:C116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3685,19 +3658,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E1" t="str" cm="1">
-        <f t="array" ref="E1">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B1))</f>
+        <f t="array" ref="E1">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B1))</f>
         <v>{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}</v>
       </c>
       <c r="F1" t="str">
@@ -3706,25 +3679,25 @@
       </c>
       <c r="I1" s="1" t="str">
         <f>"["&amp;_xlfn.TEXTJOIN(",",FALSE,F1:F11)&amp;"]"</f>
-        <v>[{"id":1,"name":"архитектура","icon":"landmark","tags":[{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}],"defaultEnabled":false},{"id":2,"name":"башни","icon":"chess-rook","tags":[{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}],"defaultEnabled":true},{"id":3,"name":"водные объекты","icon":"faucet","tags":[{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}],"defaultEnabled":false},{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true},{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"amenity","value":"bench","name":"скамейка"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false},{"id":6,"name":"необычные точки","icon":"search-location","tags":[{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}],"defaultEnabled":true},{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}],"defaultEnabled":false},{"id":8,"name":"природные объекты","icon":"tree","tags":[{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}],"defaultEnabled":true},{"id":9,"name":"религия","icon":"mosque","tags":[{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}],"defaultEnabled":false},{"id":10,"name":"руины","icon":"house-damage","tags":[{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}],"defaultEnabled":true},{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"mineshaft","name":"шахта"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}]</v>
+        <v>[{"id":1,"name":"архитектура","icon":"landmark","tags":[{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}],"defaultEnabled":false},{"id":2,"name":"башни","icon":"chess-rook","tags":[{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}],"defaultEnabled":true},{"id":3,"name":"водные объекты","icon":"faucet","tags":[{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}],"defaultEnabled":false},{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true},{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false},{"id":6,"name":"необычные точки","icon":"search-location","tags":[{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}],"defaultEnabled":true},{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}],"defaultEnabled":false},{"id":8,"name":"природные объекты","icon":"tree","tags":[{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}],"defaultEnabled":true},{"id":9,"name":"религия","icon":"mosque","tags":[{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}],"defaultEnabled":false},{"id":10,"name":"руины","icon":"house-damage","tags":[{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}],"defaultEnabled":true},{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"mineshaft","name":"шахта"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}]</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B2))</f>
+        <f t="array" ref="E2">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B2))</f>
         <v>{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}</v>
       </c>
       <c r="F2" t="str">
@@ -3736,19 +3709,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" t="str" cm="1">
-        <f t="array" ref="E3">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B3))</f>
+        <f t="array" ref="E3">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B3))</f>
         <v>{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}</v>
       </c>
       <c r="F3" t="str">
@@ -3760,19 +3733,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" t="str" cm="1">
-        <f t="array" ref="E4">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B4))</f>
+        <f t="array" ref="E4">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B4))</f>
         <v>{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}</v>
       </c>
       <c r="F4" t="str">
@@ -3784,43 +3757,43 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" t="str" cm="1">
-        <f t="array" ref="E5">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B5))</f>
-        <v>{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"amenity","value":"bench","name":"скамейка"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
+        <f t="array" ref="E5">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B5))</f>
+        <v>{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"amenity","value":"bench","name":"скамейка"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false}</v>
+        <v>{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false}</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
         <v>151</v>
       </c>
-      <c r="D6" t="s">
-        <v>153</v>
-      </c>
       <c r="E6" t="str" cm="1">
-        <f t="array" ref="E6">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B6))</f>
+        <f t="array" ref="E6">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B6))</f>
         <v>{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}</v>
       </c>
       <c r="F6" t="str">
@@ -3832,19 +3805,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" t="str" cm="1">
-        <f t="array" ref="E7">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B7))</f>
+        <f t="array" ref="E7">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B7))</f>
         <v>{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}</v>
       </c>
       <c r="F7" t="str">
@@ -3856,19 +3829,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E8" t="str" cm="1">
-        <f t="array" ref="E8">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B8))</f>
+        <f t="array" ref="E8">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B8))</f>
         <v>{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}</v>
       </c>
       <c r="F8" t="str">
@@ -3880,19 +3853,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" t="str" cm="1">
-        <f t="array" ref="E9">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B9))</f>
+        <f t="array" ref="E9">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B9))</f>
         <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}</v>
       </c>
       <c r="F9" t="str">
@@ -3904,19 +3877,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E10" t="str" cm="1">
-        <f t="array" ref="E10">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B10))</f>
+        <f t="array" ref="E10">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B10))</f>
         <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}</v>
       </c>
       <c r="F10" t="str">
@@ -3928,19 +3901,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B11))</f>
+        <f t="array" ref="E11">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B11))</f>
         <v>{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"mineshaft","name":"шахта"},{"key":"man_made","value":"adit","name":"штольня"}</v>
       </c>
       <c r="F11" t="str">

--- a/assets/poi.xlsx
+++ b/assets/poi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DEV\Promenade\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC4975-E077-4810-8DB4-E633DC7C785F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A82638F-E58B-408E-9653-5D4E8231FC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{568C77FC-0DE7-4256-B04F-041E0148FBF8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="247">
   <si>
     <t>aeroway</t>
   </si>
@@ -641,12 +641,6 @@
   </si>
   <si>
     <t>мачта</t>
-  </si>
-  <si>
-    <t>mineshaft</t>
-  </si>
-  <si>
-    <t>шахта</t>
   </si>
   <si>
     <t>obelisk</t>
@@ -1178,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F18D1C-6589-4D0F-8BC1-7640B77B5D33}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,13 +1651,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -1678,13 +1672,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -1741,13 +1735,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
         <v>70</v>
@@ -1765,10 +1759,10 @@
         <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
@@ -1786,10 +1780,10 @@
         <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
@@ -1825,13 +1819,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
         <v>240</v>
       </c>
-      <c r="B31" t="s">
-        <v>242</v>
-      </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
         <v>70</v>
@@ -1909,7 +1903,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -2017,10 +2011,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
@@ -2266,13 +2260,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" t="s">
         <v>235</v>
-      </c>
-      <c r="B52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" t="s">
-        <v>237</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -2416,10 +2410,10 @@
         <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -2479,10 +2473,10 @@
         <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -2518,13 +2512,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -2689,10 +2683,10 @@
         <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -2833,13 +2827,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
         <v>32</v>
@@ -2854,13 +2848,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
         <v>215</v>
-      </c>
-      <c r="B80" t="s">
-        <v>216</v>
-      </c>
-      <c r="C80" t="s">
-        <v>217</v>
       </c>
       <c r="D80" t="s">
         <v>32</v>
@@ -2875,13 +2869,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
         <v>219</v>
-      </c>
-      <c r="C81" t="s">
-        <v>221</v>
       </c>
       <c r="D81" t="s">
         <v>32</v>
@@ -2896,13 +2890,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" t="s">
         <v>218</v>
-      </c>
-      <c r="C82" t="s">
-        <v>220</v>
       </c>
       <c r="D82" t="s">
         <v>32</v>
@@ -2917,7 +2911,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B83" t="s">
         <v>107</v>
@@ -3001,13 +2995,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
         <v>32</v>
@@ -3022,13 +3016,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
         <v>32</v>
@@ -3088,10 +3082,10 @@
         <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D91" t="s">
         <v>185</v>
@@ -3106,13 +3100,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
         <v>228</v>
-      </c>
-      <c r="B92" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" t="s">
-        <v>230</v>
       </c>
       <c r="D92" t="s">
         <v>185</v>
@@ -3151,10 +3145,10 @@
         <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
         <v>185</v>
@@ -3172,10 +3166,10 @@
         <v>168</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
         <v>185</v>
@@ -3193,10 +3187,10 @@
         <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -3205,29 +3199,29 @@
         <v>11</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" ref="F96:F116" si="3">"{""key"":"""&amp;A96&amp;""",""value"":"""&amp;B96&amp;""",""name"":"""&amp;C96&amp;"""}"</f>
-        <v>{"key":"man_made","value":"mineshaft","name":"шахта"}</v>
+        <f t="shared" ref="F96:F115" si="3">"{""key"":"""&amp;A96&amp;""",""value"":"""&amp;B96&amp;""",""name"":"""&amp;C96&amp;"""}"</f>
+        <v>{"key":"man_made","value":"adit","name":"штольня"}</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="E97">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"man_made","value":"adit","name":"штольня"}</v>
+        <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"}</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,10 +3229,10 @@
         <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
@@ -3248,15 +3242,15 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"}</v>
+        <v>{"key":"historic","value":"wayside_cross","name":"крест"}</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
         <v>124</v>
@@ -3269,18 +3263,18 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"historic","value":"wayside_cross","name":"крест"}</v>
+        <v>{"key":"man_made","value":"cross","name":"крест"}</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
         <v>21</v>
@@ -3290,18 +3284,18 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"man_made","value":"cross","name":"крест"}</v>
+        <v>{"key":"building","value":"mosque","name":"мечеть"}</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
         <v>21</v>
@@ -3311,12 +3305,12 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"building","value":"mosque","name":"мечеть"}</v>
+        <v>{"key":"amenity","value":"monastery","name":"монастырь"}</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
@@ -3332,18 +3326,18 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"amenity","value":"monastery","name":"монастырь"}</v>
+        <v>{"key":"historic","value":"monastery","name":"монастырь"}</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
         <v>21</v>
@@ -3353,18 +3347,18 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"historic","value":"monastery","name":"монастырь"}</v>
+        <v>{"key":"building","value":"religious","name":"религиозное строение"}</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="D104" t="s">
         <v>21</v>
@@ -3374,18 +3368,18 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"building","value":"religious","name":"религиозное строение"}</v>
+        <v>{"key":"historic","value":"rune_stone","name":"рунический камень"}</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
         <v>21</v>
@@ -3395,18 +3389,18 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"historic","value":"rune_stone","name":"рунический камень"}</v>
+        <v>{"key":"amenity","value":"place_of_worship","name":"святое место"}</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D106" t="s">
         <v>21</v>
@@ -3416,7 +3410,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"amenity","value":"place_of_worship","name":"святое место"}</v>
+        <v>{"key":"building","value":"shrine","name":"святыня"}</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,10 +3418,10 @@
         <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -3437,7 +3431,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"building","value":"shrine","name":"святыня"}</v>
+        <v>{"key":"building","value":"synagogue","name":"синагога"}</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,10 +3439,10 @@
         <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s">
         <v>21</v>
@@ -3458,7 +3452,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"building","value":"synagogue","name":"синагога"}</v>
+        <v>{"key":"building","value":"cathedral","name":"собор"}</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,10 +3460,10 @@
         <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
         <v>21</v>
@@ -3479,12 +3473,12 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"building","value":"cathedral","name":"собор"}</v>
+        <v>{"key":"building","value":"church","name":"церковь"}</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
@@ -3500,39 +3494,39 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"building","value":"church","name":"церковь"}</v>
+        <v>{"key":"historic","value":"church","name":"церковь"}</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"historic","value":"church","name":"церковь"}</v>
+        <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"}</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D112" t="s">
         <v>64</v>
@@ -3542,18 +3536,18 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"}</v>
+        <v>{"key":"railway","value":"disused","name":"заброшенная Ж/Д"}</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="D113" t="s">
         <v>64</v>
@@ -3563,18 +3557,18 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"railway","value":"disused","name":"заброшенная Ж/Д"}</v>
+        <v>{"key":"historic","value":"wreck","name":"кораблекрушение"}</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
         <v>64</v>
@@ -3584,12 +3578,12 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"historic","value":"wreck","name":"кораблекрушение"}</v>
+        <v>{"key":"building","value":"ruins","name":"руины"}</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B115" t="s">
         <v>63</v>
@@ -3605,34 +3599,13 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"building","value":"ruins","name":"руины"}</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C116" t="s">
-        <v>64</v>
-      </c>
-      <c r="D116" t="s">
-        <v>64</v>
-      </c>
-      <c r="E116">
-        <v>10</v>
-      </c>
-      <c r="F116" t="str">
-        <f t="shared" si="3"/>
         <v>{"key":"historic","value":"ruins","name":"руины"}</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F116">
-    <sortCondition ref="D1:D116"/>
-    <sortCondition ref="C1:C116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F115">
+    <sortCondition ref="D1:D115"/>
+    <sortCondition ref="C1:C115"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3670,7 +3643,7 @@
         <v>152</v>
       </c>
       <c r="E1" t="str" cm="1">
-        <f t="array" ref="E1">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B1))</f>
+        <f t="array" ref="E1">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B1))</f>
         <v>{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}</v>
       </c>
       <c r="F1" t="str">
@@ -3679,7 +3652,7 @@
       </c>
       <c r="I1" s="1" t="str">
         <f>"["&amp;_xlfn.TEXTJOIN(",",FALSE,F1:F11)&amp;"]"</f>
-        <v>[{"id":1,"name":"архитектура","icon":"landmark","tags":[{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}],"defaultEnabled":false},{"id":2,"name":"башни","icon":"chess-rook","tags":[{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}],"defaultEnabled":true},{"id":3,"name":"водные объекты","icon":"faucet","tags":[{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}],"defaultEnabled":false},{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true},{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false},{"id":6,"name":"необычные точки","icon":"search-location","tags":[{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}],"defaultEnabled":true},{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}],"defaultEnabled":false},{"id":8,"name":"природные объекты","icon":"tree","tags":[{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}],"defaultEnabled":true},{"id":9,"name":"религия","icon":"mosque","tags":[{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}],"defaultEnabled":false},{"id":10,"name":"руины","icon":"house-damage","tags":[{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}],"defaultEnabled":true},{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"mineshaft","name":"шахта"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}]</v>
+        <v>[{"id":1,"name":"архитектура","icon":"landmark","tags":[{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}],"defaultEnabled":false},{"id":2,"name":"башни","icon":"chess-rook","tags":[{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}],"defaultEnabled":true},{"id":3,"name":"водные объекты","icon":"faucet","tags":[{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}],"defaultEnabled":false},{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true},{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false},{"id":6,"name":"необычные точки","icon":"search-location","tags":[{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}],"defaultEnabled":true},{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}],"defaultEnabled":false},{"id":8,"name":"природные объекты","icon":"tree","tags":[{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}],"defaultEnabled":true},{"id":9,"name":"религия","icon":"mosque","tags":[{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}],"defaultEnabled":false},{"id":10,"name":"руины","icon":"house-damage","tags":[{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}],"defaultEnabled":true},{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}]</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -3697,7 +3670,7 @@
         <v>151</v>
       </c>
       <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B2))</f>
+        <f t="array" ref="E2">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B2))</f>
         <v>{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}</v>
       </c>
       <c r="F2" t="str">
@@ -3721,7 +3694,7 @@
         <v>152</v>
       </c>
       <c r="E3" t="str" cm="1">
-        <f t="array" ref="E3">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B3))</f>
+        <f t="array" ref="E3">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B3))</f>
         <v>{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}</v>
       </c>
       <c r="F3" t="str">
@@ -3745,7 +3718,7 @@
         <v>151</v>
       </c>
       <c r="E4" t="str" cm="1">
-        <f t="array" ref="E4">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B4))</f>
+        <f t="array" ref="E4">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B4))</f>
         <v>{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}</v>
       </c>
       <c r="F4" t="str">
@@ -3769,7 +3742,7 @@
         <v>152</v>
       </c>
       <c r="E5" t="str" cm="1">
-        <f t="array" ref="E5">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B5))</f>
+        <f t="array" ref="E5">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B5))</f>
         <v>{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
       </c>
       <c r="F5" t="str">
@@ -3793,7 +3766,7 @@
         <v>151</v>
       </c>
       <c r="E6" t="str" cm="1">
-        <f t="array" ref="E6">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B6))</f>
+        <f t="array" ref="E6">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B6))</f>
         <v>{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}</v>
       </c>
       <c r="F6" t="str">
@@ -3817,7 +3790,7 @@
         <v>152</v>
       </c>
       <c r="E7" t="str" cm="1">
-        <f t="array" ref="E7">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B7))</f>
+        <f t="array" ref="E7">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B7))</f>
         <v>{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}</v>
       </c>
       <c r="F7" t="str">
@@ -3841,7 +3814,7 @@
         <v>151</v>
       </c>
       <c r="E8" t="str" cm="1">
-        <f t="array" ref="E8">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B8))</f>
+        <f t="array" ref="E8">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B8))</f>
         <v>{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}</v>
       </c>
       <c r="F8" t="str">
@@ -3865,7 +3838,7 @@
         <v>152</v>
       </c>
       <c r="E9" t="str" cm="1">
-        <f t="array" ref="E9">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B9))</f>
+        <f t="array" ref="E9">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B9))</f>
         <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}</v>
       </c>
       <c r="F9" t="str">
@@ -3889,7 +3862,7 @@
         <v>151</v>
       </c>
       <c r="E10" t="str" cm="1">
-        <f t="array" ref="E10">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B10))</f>
+        <f t="array" ref="E10">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B10))</f>
         <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}</v>
       </c>
       <c r="F10" t="str">
@@ -3913,12 +3886,12 @@
         <v>151</v>
       </c>
       <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$149,Лист1!$E$1:$E$149=B11))</f>
-        <v>{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"mineshaft","name":"шахта"},{"key":"man_made","value":"adit","name":"штольня"}</v>
+        <f t="array" ref="E11">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B11))</f>
+        <v>{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"adit","name":"штольня"}</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"mineshaft","name":"шахта"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}</v>
+        <v>{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>

--- a/assets/poi.xlsx
+++ b/assets/poi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DEV\Promenade\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A82638F-E58B-408E-9653-5D4E8231FC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B32DF-3443-4FDE-8435-D54195E0C6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{568C77FC-0DE7-4256-B04F-041E0148FBF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{568C77FC-0DE7-4256-B04F-041E0148FBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="250">
   <si>
     <t>aeroway</t>
   </si>
@@ -797,6 +797,15 @@
   </si>
   <si>
     <t>водные ворота</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>памятник</t>
+  </si>
+  <si>
+    <t>war_memorial</t>
   </si>
 </sst>
 </file>
@@ -1172,22 +1181,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F18D1C-6589-4D0F-8BC1-7640B77B5D33}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>{"key":"historic","value":"aqueduct","name":"акведук"}</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>{"key":"building","value":"gatehouse","name":"арка"}</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>{"key":"barrier","value":"city_wall","name":"городская стена"}</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>{"key":"historic","value":"city_gate","name":"городские ворота"}</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>{"key":"historic","value":"tomb","name":"гробница"}</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>{"key":"building","value":"temple","name":"замок"}</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>{"key":"historic","value":"castle","name":"замок"}</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>{"key":"historic","value":"building","name":"историческое здание"}</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1385,7 @@
         <v>{"key":"building","value":"conservatory","name":"оранжерея"}</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>{"key":"barrier","value":"ditch","name":"ров"}</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>{"key":"historic","value":"castle_wall","name":"стена замка"}</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>{"key":"building","value":"greenhouse","name":"теплица"}</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>{"key":"historic","value":"manor","name":"усадьба"}</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>{"key":"historic","value":"tower","name":"башня"}</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -1502,7 +1511,7 @@
         <v>{"key":"man_made","value":"tower","name":"башня"}</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1523,7 +1532,7 @@
         <v>{"key":"building","value":"water_tower","name":"водонапорная башня"}</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>{"key":"man_made","value":"water_tower","name":"водонапорная башня"}</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>{"key":"man_made","value":"communications_tower","name":"вышка связи"}</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>{"key":"man_made","value":"mast","name":"мачта"}</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>{"key":"man_made","value":"lighthouse","name":"маяк"}</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>{"key":"man_made","value":"beacon","name":"радиомаяк"}</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -1670,7 +1679,7 @@
         <v>{"key":"waterway","value":"lock_gate","name":"водные ворота"}</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>{"key":"waterway","value":"waterfall","name":"водопад"}</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>{"key":"man_made","value":"groyne","name":"волнолом"}</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>{"key":"man_made","value":"breakwater","name":"волнорез"}</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>{"key":"waterway","value":"dam","name":"дамба"}</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>{"key":"man_made","value":"water_well","name":"колодец"}</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -1796,7 +1805,7 @@
         <v>{"key":"man_made","value":"pier","name":"пирс"}</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1817,7 +1826,7 @@
         <v>{"key":"emergency","value":"drinking_water","name":"питьевая вода"}</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -1838,7 +1847,7 @@
         <v>{"key":"waterway","value":"weir","name":"плотина"}</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>{"key":"emergency","value":"water_tank","name":"пожарный водоём"}</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1876,11 +1885,11 @@
         <v>3</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33:F63" si="1">"{""key"":"""&amp;A33&amp;""",""value"":"""&amp;B33&amp;""",""name"":"""&amp;C33&amp;"""}"</f>
+        <f t="shared" ref="F33:F64" si="1">"{""key"":"""&amp;A33&amp;""",""value"":"""&amp;B33&amp;""",""name"":"""&amp;C33&amp;"""}"</f>
         <v>{"key":"amenity","value":"fountain","name":"фонтан"}</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>168</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>{"key":"man_made","value":"bunker_silo","name":"бункер"}</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -1922,7 +1931,7 @@
         <v>{"key":"military","value":"bunker","name":"бункер"}</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>{"key":"historic","value":"ship","name":"корабль"}</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -1964,12 +1973,12 @@
         <v>{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"}</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -1982,18 +1991,18 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"memorial","name":"мемориал"}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"memorial","value":"war_memorial","name":"мемориал"}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
         <v>140</v>
@@ -2003,18 +2012,18 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"battlefield","name":"место сражения"}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"memorial","name":"мемориал"}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
@@ -2024,18 +2033,18 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"man_made","value":"obelisk","name":"обелиск"}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"battlefield","name":"место сражения"}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
         <v>140</v>
@@ -2045,18 +2054,18 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"boundary_stone","name":"пограничный камень"}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"man_made","value":"obelisk","name":"обелиск"}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
         <v>140</v>
@@ -2066,18 +2075,18 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"cannon","name":"пушка"}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"boundary_stone","name":"пограничный камень"}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
         <v>140</v>
@@ -2087,18 +2096,18 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"aircraft","name":"самолет"}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"cannon","name":"пушка"}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
         <v>140</v>
@@ -2108,18 +2117,18 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"tank","name":"танк"}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"aircraft","name":"самолет"}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
         <v>140</v>
@@ -2129,39 +2138,39 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"fort","name":"форт"}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"tank","name":"танк"}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"leisure","value":"track","name":"беговая дорожка"}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"fort","name":"форт"}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -2171,18 +2180,18 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"highway","value":"traffic_mirror","name":"зеркало"}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"leisure","value":"track","name":"беговая дорожка"}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -2192,18 +2201,18 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"amenity","value":"drinking_water","name":"источник воды"}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"highway","value":"traffic_mirror","name":"зеркало"}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -2213,18 +2222,18 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"amenity","value":"shelter","name":"навес от дождя"}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"amenity","value":"drinking_water","name":"источник воды"}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -2234,18 +2243,18 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"amenity","value":"clock","name":"наружные часы"}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"amenity","value":"shelter","name":"навес от дождя"}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -2255,39 +2264,39 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"amenity","value":"clock","name":"наружные часы"}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"tourism","value":"artwork","name":"арт-объект"}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -2297,18 +2306,18 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"archaeological_site","name":"археологические раскопки"}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"tourism","value":"artwork","name":"арт-объект"}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -2318,18 +2327,18 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"building","value":"bunker","name":"бункер"}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"archaeological_site","name":"археологические раскопки"}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -2339,18 +2348,18 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"railway_car","name":"вагон"}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"building","value":"bunker","name":"бункер"}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -2360,18 +2369,18 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"milestone","name":"верстовой камень"}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"railway_car","name":"вагон"}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -2381,18 +2390,18 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"gallows","name":"виселицы"}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"milestone","name":"верстовой камень"}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2402,18 +2411,18 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"highwater_mark","name":"водомерная отметка"}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"gallows","name":"виселицы"}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -2423,18 +2432,18 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"man_made","value":"watermill","name":"водяная мельница"}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"highwater_mark","name":"водомерная отметка"}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2444,18 +2453,18 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"building","value":"tree_house","name":"домик на дереве"}</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"man_made","value":"watermill","name":"водяная мельница"}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -2465,18 +2474,18 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"locomotive","name":"локомотив"}</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"building","value":"tree_house","name":"домик на дереве"}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -2486,18 +2495,18 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"man_made","value":"windmill","name":"мельница"}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"historic","value":"locomotive","name":"локомотив"}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -2507,18 +2516,18 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"historic","value":"pillory","name":"место казни"}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{"key":"man_made","value":"windmill","name":"мельница"}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -2527,19 +2536,19 @@
         <v>6</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" ref="F64:F95" si="2">"{""key"":"""&amp;A64&amp;""",""value"":"""&amp;B64&amp;""",""name"":"""&amp;C64&amp;"""}"</f>
-        <v>{"key":"tourism","value":"viewpoint","name":"обзорная точка"}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"key":"historic","value":"pillory","name":"место казни"}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -2548,1064 +2557,1106 @@
         <v>6</v>
       </c>
       <c r="F65" t="str">
+        <f t="shared" ref="F65:F97" si="2">"{""key"":"""&amp;A65&amp;""",""value"":"""&amp;B65&amp;""",""name"":"""&amp;C65&amp;"""}"</f>
+        <v>{"key":"tourism","value":"viewpoint","name":"обзорная точка"}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"amenity","value":"public_bookcase","name":"обмен книгами"}</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>23</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>6</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F67" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"amenity","value":"hunting_stand","name":"охотничья станция"}</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>153</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>156</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>157</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>23</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>6</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F68" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"}</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>75</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>23</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>6</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F69" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"geological","value":"palaeontological_site","name":"раскопки"}</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>153</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>164</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>165</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>23</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>6</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F70" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"leisure","value":"slipway","name":"стапель"}</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>153</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>162</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>163</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>23</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>6</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F71" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"leisure","value":"picnic_table","name":"стол для пикника"}</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>153</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>154</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>155</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>23</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>6</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F72" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"leisure","value":"bandstand","name":"сцена"}</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>168</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>204</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>205</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>23</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>6</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F73" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"survey_point","name":"топографическая точка"}</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>168</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>181</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>182</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>23</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>6</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F74" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"flagpole","name":"флагшток"}</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>0</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>23</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>6</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F75" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"aeroway","value":"windsock","name":"флюгер"}</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>82</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>107</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>128</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>142</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>7</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F76" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"historic","value":"stone","name":"камень"}</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>102</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>132</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>142</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>7</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F77" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"historic","value":"monument","name":"монумент"}</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="2"/>
+        <v>{"key":"memorial","value":"statue","name":"памятник"}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>24</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>33</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>34</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>32</v>
       </c>
-      <c r="E77">
+      <c r="E79">
         <v>8</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F79" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"barrier","value":"log","name":"бревно"}</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>78</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>32</v>
       </c>
-      <c r="E78">
+      <c r="E80">
         <v>8</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F80" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"ford","value":"yes","name":"брод"}</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>213</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>222</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>223</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>32</v>
       </c>
-      <c r="E79">
+      <c r="E81">
         <v>8</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F81" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"natural","value":"rock","name":"булыжник"}</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>213</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>214</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>215</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>32</v>
       </c>
-      <c r="E80">
+      <c r="E82">
         <v>8</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F82" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"natural","value":"spring","name":"водный источник"}</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>213</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>217</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>219</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" t="s">
         <v>32</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>8</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F83" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"natural","value":"geyser","name":"гейзер"}</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>213</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>216</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>218</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>32</v>
       </c>
-      <c r="E82">
+      <c r="E84">
         <v>8</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F84" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"natural","value":"hot_spring","name":"горячий сточник"}</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>213</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>107</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>128</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>32</v>
       </c>
-      <c r="E83">
+      <c r="E85">
         <v>8</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F85" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"natural","value":"stone","name":"камень"}</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>153</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>158</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>159</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>32</v>
       </c>
-      <c r="E84">
+      <c r="E86">
         <v>8</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F86" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"leisure","value":"firepit","name":"кострище"}</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>71</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>72</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>73</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" t="s">
         <v>32</v>
       </c>
-      <c r="E85">
+      <c r="E87">
         <v>8</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F87" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"geological","value":"outcrop","name":"обнажение породы"}</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>24</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>30</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>31</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>32</v>
       </c>
-      <c r="E86">
+      <c r="E88">
         <v>8</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F88" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"barrier","value":"debris","name":"осыпь"}</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>213</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>220</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>221</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>32</v>
       </c>
-      <c r="E87">
+      <c r="E89">
         <v>8</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F89" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"natural","value":"blowhole","name":"отдушина"}</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>213</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>224</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>225</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>32</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <v>8</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F90" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"natural","value":"cave_entrance","name":"пещера"}</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>168</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>183</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>184</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>185</v>
       </c>
-      <c r="E89">
+      <c r="E91">
         <v>11</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F91" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"gasometer","name":"газгольдер"}</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>168</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>187</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>188</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>185</v>
       </c>
-      <c r="E90">
+      <c r="E92">
         <v>11</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F92" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"goods_conveyor","name":"конвейер"}</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>168</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>199</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>200</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>185</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>11</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F93" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"reservoir_covered","name":"резервуар"}</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>226</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>227</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>228</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>185</v>
       </c>
-      <c r="E92">
+      <c r="E94">
         <v>11</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F94" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"power","value":"heliostat","name":"солнечная батарея"}</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>168</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>176</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>177</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>185</v>
       </c>
-      <c r="E93">
+      <c r="E95">
         <v>11</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F95" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"chimney","name":"труба"}</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>168</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>201</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>185</v>
       </c>
-      <c r="E94">
+      <c r="E96">
         <v>11</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F96" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"silo","name":"хранилище"}</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>168</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>203</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>202</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D97" t="s">
         <v>185</v>
       </c>
-      <c r="E95">
+      <c r="E97">
         <v>11</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F97" t="str">
         <f t="shared" si="2"/>
         <v>{"key":"man_made","value":"storage_tank","name":"хранилище"}</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>168</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>169</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>170</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>185</v>
       </c>
-      <c r="E96">
+      <c r="E98">
         <v>11</v>
       </c>
-      <c r="F96" t="str">
-        <f t="shared" ref="F96:F115" si="3">"{""key"":"""&amp;A96&amp;""",""value"":"""&amp;B96&amp;""",""name"":"""&amp;C96&amp;"""}"</f>
+      <c r="F98" t="str">
+        <f t="shared" ref="F98:F117" si="3">"{""key"":"""&amp;A98&amp;""",""value"":"""&amp;B98&amp;""",""name"":"""&amp;C98&amp;"""}"</f>
         <v>{"key":"man_made","value":"adit","name":"штольня"}</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>82</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>112</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>123</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>21</v>
       </c>
-      <c r="E97">
+      <c r="E99">
         <v>9</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F99" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"}</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>82</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>111</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>124</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D100" t="s">
         <v>21</v>
       </c>
-      <c r="E98">
+      <c r="E100">
         <v>9</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F100" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"historic","value":"wayside_cross","name":"крест"}</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>168</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>180</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>124</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D101" t="s">
         <v>21</v>
       </c>
-      <c r="E99">
+      <c r="E101">
         <v>9</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F101" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"man_made","value":"cross","name":"крест"}</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>35</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>40</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>41</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>21</v>
       </c>
-      <c r="E100">
+      <c r="E102">
         <v>9</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F102" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"building","value":"mosque","name":"мечеть"}</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>3</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>14</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>15</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>21</v>
       </c>
-      <c r="E101">
+      <c r="E103">
         <v>9</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F103" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"amenity","value":"monastery","name":"монастырь"}</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>82</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>14</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>15</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>21</v>
       </c>
-      <c r="E102">
+      <c r="E104">
         <v>9</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F104" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"historic","value":"monastery","name":"монастырь"}</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>35</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>42</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>43</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>21</v>
       </c>
-      <c r="E103">
+      <c r="E105">
         <v>9</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F105" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"building","value":"religious","name":"религиозное строение"}</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>82</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>105</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>130</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D106" t="s">
         <v>21</v>
       </c>
-      <c r="E104">
+      <c r="E106">
         <v>9</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F106" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"historic","value":"rune_stone","name":"рунический камень"}</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>3</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>16</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>17</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>21</v>
       </c>
-      <c r="E105">
+      <c r="E107">
         <v>9</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F107" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"amenity","value":"place_of_worship","name":"святое место"}</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>35</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>44</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>45</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>21</v>
       </c>
-      <c r="E106">
+      <c r="E108">
         <v>9</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F108" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"building","value":"shrine","name":"святыня"}</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>35</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>46</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>47</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>21</v>
       </c>
-      <c r="E107">
+      <c r="E109">
         <v>9</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F109" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"building","value":"synagogue","name":"синагога"}</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>35</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>36</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>37</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>21</v>
       </c>
-      <c r="E108">
+      <c r="E110">
         <v>9</v>
       </c>
-      <c r="F108" t="str">
+      <c r="F110" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"building","value":"cathedral","name":"собор"}</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>35</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>38</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>39</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>21</v>
       </c>
-      <c r="E109">
+      <c r="E111">
         <v>9</v>
       </c>
-      <c r="F109" t="str">
+      <c r="F111" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"building","value":"church","name":"церковь"}</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>82</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>38</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>39</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>21</v>
       </c>
-      <c r="E110">
+      <c r="E112">
         <v>9</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F112" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"historic","value":"church","name":"церковь"}</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>229</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>230</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>231</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>64</v>
       </c>
-      <c r="E111">
+      <c r="E113">
         <v>10</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F113" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"}</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>229</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>232</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>231</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>64</v>
       </c>
-      <c r="E112">
+      <c r="E114">
         <v>10</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F114" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"railway","value":"disused","name":"заброшенная Ж/Д"}</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>82</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>113</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" t="s">
         <v>122</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>64</v>
       </c>
-      <c r="E113">
+      <c r="E115">
         <v>10</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F115" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"historic","value":"wreck","name":"кораблекрушение"}</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>35</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>63</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>64</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D116" t="s">
         <v>64</v>
       </c>
-      <c r="E114">
+      <c r="E116">
         <v>10</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F116" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"building","value":"ruins","name":"руины"}</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>82</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>63</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>64</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>64</v>
       </c>
-      <c r="E115">
+      <c r="E117">
         <v>10</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F117" t="str">
         <f t="shared" si="3"/>
         <v>{"key":"historic","value":"ruins","name":"руины"}</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F115">
-    <sortCondition ref="D1:D115"/>
-    <sortCondition ref="C1:C115"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F117">
+    <sortCondition ref="D1:D117"/>
+    <sortCondition ref="C1:C117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3616,20 +3667,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0FEAFB-3555-457D-8C38-8CD33CAF375C}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3643,7 +3694,7 @@
         <v>152</v>
       </c>
       <c r="E1" t="str" cm="1">
-        <f t="array" ref="E1">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B1))</f>
+        <f t="array" ref="E1">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B1))</f>
         <v>{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}</v>
       </c>
       <c r="F1" t="str">
@@ -3652,11 +3703,11 @@
       </c>
       <c r="I1" s="1" t="str">
         <f>"["&amp;_xlfn.TEXTJOIN(",",FALSE,F1:F11)&amp;"]"</f>
-        <v>[{"id":1,"name":"архитектура","icon":"landmark","tags":[{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}],"defaultEnabled":false},{"id":2,"name":"башни","icon":"chess-rook","tags":[{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}],"defaultEnabled":true},{"id":3,"name":"водные объекты","icon":"faucet","tags":[{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}],"defaultEnabled":false},{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true},{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false},{"id":6,"name":"необычные точки","icon":"search-location","tags":[{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}],"defaultEnabled":true},{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}],"defaultEnabled":false},{"id":8,"name":"природные объекты","icon":"tree","tags":[{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}],"defaultEnabled":true},{"id":9,"name":"религия","icon":"mosque","tags":[{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}],"defaultEnabled":false},{"id":10,"name":"руины","icon":"house-damage","tags":[{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}],"defaultEnabled":true},{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}]</v>
+        <v>[{"id":1,"name":"архитектура","icon":"landmark","tags":[{"key":"historic","value":"aqueduct","name":"акведук"},{"key":"building","value":"gatehouse","name":"арка"},{"key":"barrier","value":"city_wall","name":"городская стена"},{"key":"historic","value":"city_gate","name":"городские ворота"},{"key":"historic","value":"tomb","name":"гробница"},{"key":"building","value":"temple","name":"замок"},{"key":"historic","value":"castle","name":"замок"},{"key":"historic","value":"building","name":"историческое здание"},{"key":"building","value":"conservatory","name":"оранжерея"},{"key":"barrier","value":"ditch","name":"ров"},{"key":"historic","value":"castle_wall","name":"стена замка"},{"key":"building","value":"greenhouse","name":"теплица"},{"key":"historic","value":"manor","name":"усадьба"}],"defaultEnabled":false},{"id":2,"name":"башни","icon":"chess-rook","tags":[{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}],"defaultEnabled":true},{"id":3,"name":"водные объекты","icon":"faucet","tags":[{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}],"defaultEnabled":false},{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"memorial","value":"war_memorial","name":"мемориал"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true},{"id":5,"name":"городские удобства","icon":"street-view","tags":[{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}],"defaultEnabled":false},{"id":6,"name":"необычные точки","icon":"search-location","tags":[{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}],"defaultEnabled":true},{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"},{"key":"memorial","value":"statue","name":"памятник"}],"defaultEnabled":false},{"id":8,"name":"природные объекты","icon":"tree","tags":[{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}],"defaultEnabled":true},{"id":9,"name":"религия","icon":"mosque","tags":[{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}],"defaultEnabled":false},{"id":10,"name":"руины","icon":"house-damage","tags":[{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}],"defaultEnabled":true},{"id":11,"name":"промышленность","icon":"industry","tags":[{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"adit","name":"штольня"}],"defaultEnabled":true}]</v>
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3670,7 +3721,7 @@
         <v>151</v>
       </c>
       <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B2))</f>
+        <f t="array" ref="E2">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B2))</f>
         <v>{"key":"historic","value":"tower","name":"башня"},{"key":"man_made","value":"tower","name":"башня"},{"key":"building","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"water_tower","name":"водонапорная башня"},{"key":"man_made","value":"communications_tower","name":"вышка связи"},{"key":"man_made","value":"mast","name":"мачта"},{"key":"man_made","value":"lighthouse","name":"маяк"},{"key":"man_made","value":"beacon","name":"радиомаяк"},{"key":"building","value":"transformer_tower","name":"трансформаторная вышка"}</v>
       </c>
       <c r="F2" t="str">
@@ -3680,7 +3731,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3694,7 +3745,7 @@
         <v>152</v>
       </c>
       <c r="E3" t="str" cm="1">
-        <f t="array" ref="E3">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B3))</f>
+        <f t="array" ref="E3">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B3))</f>
         <v>{"key":"waterway","value":"lock_gate","name":"водные ворота"},{"key":"waterway","value":"waterfall","name":"водопад"},{"key":"man_made","value":"groyne","name":"волнолом"},{"key":"man_made","value":"breakwater","name":"волнорез"},{"key":"waterway","value":"dam","name":"дамба"},{"key":"man_made","value":"water_well","name":"колодец"},{"key":"man_made","value":"pier","name":"пирс"},{"key":"emergency","value":"drinking_water","name":"питьевая вода"},{"key":"waterway","value":"weir","name":"плотина"},{"key":"emergency","value":"water_tank","name":"пожарный водоём"},{"key":"amenity","value":"fountain","name":"фонтан"}</v>
       </c>
       <c r="F3" t="str">
@@ -3704,7 +3755,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -3718,17 +3769,17 @@
         <v>151</v>
       </c>
       <c r="E4" t="str" cm="1">
-        <f t="array" ref="E4">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B4))</f>
-        <v>{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}</v>
+        <f t="array" ref="E4">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B4))</f>
+        <v>{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"memorial","value":"war_memorial","name":"мемориал"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true}</v>
+        <v>{"id":4,"name":"военная история","icon":"fighter-jet","tags":[{"key":"man_made","value":"bunker_silo","name":"бункер"},{"key":"military","value":"bunker","name":"бункер"},{"key":"historic","value":"ship","name":"корабль"},{"key":"historic","value":"bomb_crater","name":"кратер от бомбы"},{"key":"memorial","value":"war_memorial","name":"мемориал"},{"key":"historic","value":"memorial","name":"мемориал"},{"key":"historic","value":"battlefield","name":"место сражения"},{"key":"man_made","value":"obelisk","name":"обелиск"},{"key":"historic","value":"boundary_stone","name":"пограничный камень"},{"key":"historic","value":"cannon","name":"пушка"},{"key":"historic","value":"aircraft","name":"самолет"},{"key":"historic","value":"tank","name":"танк"},{"key":"historic","value":"fort","name":"форт"}],"defaultEnabled":true}</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3742,7 +3793,7 @@
         <v>152</v>
       </c>
       <c r="E5" t="str" cm="1">
-        <f t="array" ref="E5">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B5))</f>
+        <f t="array" ref="E5">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B5))</f>
         <v>{"key":"leisure","value":"track","name":"беговая дорожка"},{"key":"highway","value":"traffic_mirror","name":"зеркало"},{"key":"amenity","value":"drinking_water","name":"источник воды"},{"key":"amenity","value":"shelter","name":"навес от дождя"},{"key":"amenity","value":"clock","name":"наружные часы"},{"key":"leisure","value":"fitness_station","name":"спортивная площадка"}</v>
       </c>
       <c r="F5" t="str">
@@ -3752,7 +3803,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3766,7 +3817,7 @@
         <v>151</v>
       </c>
       <c r="E6" t="str" cm="1">
-        <f t="array" ref="E6">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B6))</f>
+        <f t="array" ref="E6">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B6))</f>
         <v>{"key":"tourism","value":"artwork","name":"арт-объект"},{"key":"historic","value":"archaeological_site","name":"археологические раскопки"},{"key":"building","value":"bunker","name":"бункер"},{"key":"historic","value":"railway_car","name":"вагон"},{"key":"historic","value":"milestone","name":"верстовой камень"},{"key":"historic","value":"gallows","name":"виселицы"},{"key":"historic","value":"highwater_mark","name":"водомерная отметка"},{"key":"man_made","value":"watermill","name":"водяная мельница"},{"key":"building","value":"tree_house","name":"домик на дереве"},{"key":"historic","value":"locomotive","name":"локомотив"},{"key":"man_made","value":"windmill","name":"мельница"},{"key":"historic","value":"pillory","name":"место казни"},{"key":"tourism","value":"viewpoint","name":"обзорная точка"},{"key":"amenity","value":"public_bookcase","name":"обмен книгами"},{"key":"amenity","value":"hunting_stand","name":"охотничья станция"},{"key":"leisure","value":"bird_hide","name":"площадка обзора птиц"},{"key":"geological","value":"palaeontological_site","name":"раскопки"},{"key":"leisure","value":"slipway","name":"стапель"},{"key":"leisure","value":"picnic_table","name":"стол для пикника"},{"key":"leisure","value":"bandstand","name":"сцена"},{"key":"man_made","value":"survey_point","name":"топографическая точка"},{"key":"man_made","value":"flagpole","name":"флагшток"},{"key":"aeroway","value":"windsock","name":"флюгер"}</v>
       </c>
       <c r="F6" t="str">
@@ -3776,7 +3827,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -3790,17 +3841,17 @@
         <v>152</v>
       </c>
       <c r="E7" t="str" cm="1">
-        <f t="array" ref="E7">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B7))</f>
-        <v>{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}</v>
+        <f t="array" ref="E7">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B7))</f>
+        <v>{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"},{"key":"memorial","value":"statue","name":"памятник"}</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"}],"defaultEnabled":false}</v>
+        <v>{"id":7,"name":"памятники","icon":"monument","tags":[{"key":"historic","value":"stone","name":"камень"},{"key":"historic","value":"monument","name":"монумент"},{"key":"memorial","value":"statue","name":"памятник"}],"defaultEnabled":false}</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -3814,7 +3865,7 @@
         <v>151</v>
       </c>
       <c r="E8" t="str" cm="1">
-        <f t="array" ref="E8">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B8))</f>
+        <f t="array" ref="E8">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B8))</f>
         <v>{"key":"barrier","value":"log","name":"бревно"},{"key":"ford","value":"yes","name":"брод"},{"key":"natural","value":"rock","name":"булыжник"},{"key":"natural","value":"spring","name":"водный источник"},{"key":"natural","value":"geyser","name":"гейзер"},{"key":"natural","value":"hot_spring","name":"горячий сточник"},{"key":"natural","value":"stone","name":"камень"},{"key":"leisure","value":"firepit","name":"кострище"},{"key":"geological","value":"outcrop","name":"обнажение породы"},{"key":"barrier","value":"debris","name":"осыпь"},{"key":"natural","value":"blowhole","name":"отдушина"},{"key":"natural","value":"cave_entrance","name":"пещера"}</v>
       </c>
       <c r="F8" t="str">
@@ -3824,7 +3875,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3838,7 +3889,7 @@
         <v>152</v>
       </c>
       <c r="E9" t="str" cm="1">
-        <f t="array" ref="E9">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B9))</f>
+        <f t="array" ref="E9">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B9))</f>
         <v>{"key":"historic","value":"wayside_shrine","name":"алтарь"},{"key":"historic","value":"wayside_cross","name":"крест"},{"key":"man_made","value":"cross","name":"крест"},{"key":"building","value":"mosque","name":"мечеть"},{"key":"amenity","value":"monastery","name":"монастырь"},{"key":"historic","value":"monastery","name":"монастырь"},{"key":"building","value":"religious","name":"религиозное строение"},{"key":"historic","value":"rune_stone","name":"рунический камень"},{"key":"amenity","value":"place_of_worship","name":"святое место"},{"key":"building","value":"shrine","name":"святыня"},{"key":"building","value":"synagogue","name":"синагога"},{"key":"building","value":"cathedral","name":"собор"},{"key":"building","value":"church","name":"церковь"},{"key":"historic","value":"church","name":"церковь"}</v>
       </c>
       <c r="F9" t="str">
@@ -3848,7 +3899,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -3862,7 +3913,7 @@
         <v>151</v>
       </c>
       <c r="E10" t="str" cm="1">
-        <f t="array" ref="E10">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B10))</f>
+        <f t="array" ref="E10">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B10))</f>
         <v>{"key":"railway","value":"abandoned","name":"заброшенная Ж/Д"},{"key":"railway","value":"disused","name":"заброшенная Ж/Д"},{"key":"historic","value":"wreck","name":"кораблекрушение"},{"key":"building","value":"ruins","name":"руины"},{"key":"historic","value":"ruins","name":"руины"}</v>
       </c>
       <c r="F10" t="str">
@@ -3872,7 +3923,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -3886,7 +3937,7 @@
         <v>151</v>
       </c>
       <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$148,Лист1!$E$1:$E$148=B11))</f>
+        <f t="array" ref="E11">_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.FILTER(Лист1!$F$1:$F$150,Лист1!$E$1:$E$150=B11))</f>
         <v>{"key":"man_made","value":"gasometer","name":"газгольдер"},{"key":"man_made","value":"goods_conveyor","name":"конвейер"},{"key":"man_made","value":"reservoir_covered","name":"резервуар"},{"key":"power","value":"heliostat","name":"солнечная батарея"},{"key":"man_made","value":"chimney","name":"труба"},{"key":"man_made","value":"silo","name":"хранилище"},{"key":"man_made","value":"storage_tank","name":"хранилище"},{"key":"man_made","value":"adit","name":"штольня"}</v>
       </c>
       <c r="F11" t="str">
